--- a/raw-data/greenfield.xlsx
+++ b/raw-data/greenfield.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dshap\Documents\GOV-1006\fdi_paper\raw-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9B2DF48-CE1A-4BEF-A357-C3FB69F433F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CF04C7-DECF-4125-8F17-BC30AB685EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -734,13 +734,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ###\ ##0;\-#\ ###\ ##0;&quot;-&quot;"/>
+    <numFmt numFmtId="165" formatCode="#\ ###\ ##0;\-#\ ###\ ##0;\-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -761,6 +769,12 @@
     <font>
       <i/>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -793,55 +807,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{DCAB3678-B568-430F-851D-6C02BEBC2C1C}"/>
     <cellStyle name="Normal_Greenfield_Jan 2011" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1178,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1228"/>
+  <dimension ref="A1:R1228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -1193,7 +1215,7 @@
     <col min="18" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>222</v>
       </c>
@@ -1245,8 +1267,11 @@
       <c r="Q1" s="15">
         <v>2018</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="18">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>224</v>
       </c>
@@ -1299,7 +1324,7 @@
         <v>980668.65549049992</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1377,7 @@
         <v>357139.02015349997</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1405,7 +1430,7 @@
         <v>197371.28401550004</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1458,7 +1483,7 @@
         <v>193472.1030155</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -1511,7 +1536,7 @@
         <v>4914.2667000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -1564,7 +1589,7 @@
         <v>3724.4204310999999</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -1617,7 +1642,7 @@
         <v>2940.3849000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -1670,7 +1695,7 @@
         <v>990.33973999999989</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1723,7 +1748,7 @@
         <v>971.46999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -1776,7 +1801,7 @@
         <v>3026.5668169999994</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1829,7 +1854,7 @@
         <v>2196.9567000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
@@ -1882,7 +1907,7 @@
         <v>991.57000000000028</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
@@ -1935,7 +1960,7 @@
         <v>1816.3735000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
@@ -1988,7 +2013,7 @@
         <v>18106.685269999994</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -12217,7 +12242,7 @@
         <v>10780.821731999999</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
         <v>203</v>
       </c>
@@ -12270,7 +12295,7 @@
         <v>180.4</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
         <v>204</v>
       </c>
@@ -12323,7 +12348,7 @@
         <v>707.52</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
         <v>205</v>
       </c>
@@ -12376,7 +12401,7 @@
         <v>1992.5509999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>206</v>
       </c>
@@ -12429,7 +12454,7 @@
         <v>852.72700000000009</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>207</v>
       </c>
@@ -12482,7 +12507,7 @@
         <v>7047.623732</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>208</v>
       </c>
@@ -12535,7 +12560,7 @@
         <v>38931.191613999996</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>209</v>
       </c>
@@ -12588,7 +12613,7 @@
         <v>597.45999999999992</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
         <v>210</v>
       </c>
@@ -12641,7 +12666,7 @@
         <v>272.93</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
         <v>211</v>
       </c>
@@ -12694,7 +12719,7 @@
         <v>1254.6426000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
         <v>212</v>
       </c>
@@ -12747,7 +12772,7 @@
         <v>6985.06</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
         <v>213</v>
       </c>
@@ -12800,7 +12825,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>214</v>
       </c>
@@ -12853,60 +12878,63 @@
         <v>196.35</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B221" s="3">
-        <v>21649.87</v>
-      </c>
-      <c r="C221" s="3">
-        <v>23195.370000000003</v>
-      </c>
-      <c r="D221" s="3">
-        <v>33131.159999999996</v>
-      </c>
-      <c r="E221" s="3">
-        <v>24731.77</v>
-      </c>
-      <c r="F221" s="3">
-        <v>35813.829315967472</v>
-      </c>
-      <c r="G221" s="3">
-        <v>45059.439999999995</v>
-      </c>
-      <c r="H221" s="3">
-        <v>25645.119999999999</v>
-      </c>
-      <c r="I221" s="3">
-        <v>28829.292000000001</v>
-      </c>
-      <c r="J221" s="3">
-        <v>25173.26</v>
-      </c>
-      <c r="K221" s="3">
-        <v>15985.201800000001</v>
-      </c>
-      <c r="L221" s="3">
-        <v>18562.146903210003</v>
-      </c>
-      <c r="M221" s="3">
-        <v>12817.889950000003</v>
-      </c>
-      <c r="N221" s="3">
-        <v>14555.0877</v>
-      </c>
-      <c r="O221" s="3">
-        <v>14659.375118000002</v>
-      </c>
-      <c r="P221" s="3">
-        <v>17062.573359999999</v>
-      </c>
-      <c r="Q221" s="3">
-        <v>18426.389014</v>
-      </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B221" s="17">
+        <v>21584.07</v>
+      </c>
+      <c r="C221" s="17">
+        <v>23195.37</v>
+      </c>
+      <c r="D221" s="17">
+        <v>33099.06</v>
+      </c>
+      <c r="E221" s="17">
+        <v>24732.77</v>
+      </c>
+      <c r="F221" s="17">
+        <v>35805.929320000003</v>
+      </c>
+      <c r="G221" s="17">
+        <v>44980.539999999986</v>
+      </c>
+      <c r="H221" s="17">
+        <v>25641.619999999995</v>
+      </c>
+      <c r="I221" s="17">
+        <v>28814.891999999996</v>
+      </c>
+      <c r="J221" s="17">
+        <v>25351.439999999999</v>
+      </c>
+      <c r="K221" s="17">
+        <v>16038.601800000002</v>
+      </c>
+      <c r="L221" s="17">
+        <v>18435.3469</v>
+      </c>
+      <c r="M221" s="17">
+        <v>12790.689950000004</v>
+      </c>
+      <c r="N221" s="17">
+        <v>14675.287700000003</v>
+      </c>
+      <c r="O221" s="17">
+        <v>14661.9051</v>
+      </c>
+      <c r="P221" s="17">
+        <v>17547.803369999998</v>
+      </c>
+      <c r="Q221" s="17">
+        <v>18352.389020000006</v>
+      </c>
+      <c r="R221" s="17">
+        <v>24601.507010000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
         <v>216</v>
       </c>
@@ -12959,7 +12987,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
         <v>217</v>
       </c>
@@ -13012,7 +13040,7 @@
         <v>2650.4</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
         <v>218</v>
       </c>
@@ -31322,97 +31350,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <OriginalVersionID xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <ShortTitle xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <iddfa39abe6d4bbaa511b4aebbac8986 xmlns="60ea8e68-6540-4627-bb4d-21f975742799">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </iddfa39abe6d4bbaa511b4aebbac8986>
-    <SalesNo xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <PublicationLinkId xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <ISSN xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <ImagePathWhatsNew xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <Price xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <ImagePath xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <ReferenceItemId xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <PublishDate xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f">2019-06-11T22:00:00+00:00</PublishDate>
-    <ImagePathFlagship xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <p60be10af7c941a2b23bb5f20c154691 xmlns="60ea8e68-6540-4627-bb4d-21f975742799">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">WIR Annex Table - Excel</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">acf1c80a-3951-4241-93d4-b41d338d4719</TermId>
-        </TermInfo>
-      </Terms>
-    </p60be10af7c941a2b23bb5f20c154691>
-    <MeetingId xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <Level1 xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <Level4 xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <Symbol xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <Size xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <OfficialDescription xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <LanguageId xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <ReferenceFilePath xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <MeetingLinkId xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <SpanishDocument xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </SpanishDocument>
-    <TaxCatchAll xmlns="60ea8e68-6540-4627-bb4d-21f975742799">
-      <Value>1591</Value>
-    </TaxCatchAll>
-    <h2eb479c36154a2480beda2299c6b6c5 xmlns="60ea8e68-6540-4627-bb4d-21f975742799">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </h2eb479c36154a2480beda2299c6b6c5>
-    <MeetingTitle xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <ParentDocId xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <DocumentCategory xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <Level2 xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <Level5 xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <LongDescription xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <TableOfContent xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <EnglishDocument xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </EnglishDocument>
-    <FrenchDocument xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </FrenchDocument>
-    <ReferenceDocId xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <de7de01eec0e4047a039d74943be32af xmlns="60ea8e68-6540-4627-bb4d-21f975742799">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </de7de01eec0e4047a039d74943be32af>
-    <e21d6563779b4a0cac0804544e1eafba xmlns="60ea8e68-6540-4627-bb4d-21f975742799">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e21d6563779b4a0cac0804544e1eafba>
-    <UNCTADLanguage xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <DocTitle xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <DocumentLabel xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <Level3 xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <NumberOfPages xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <OriginalLanguages xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <SubTitle xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <HighLights xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <Symbol2 xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <ISBN xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
-    <IsMigrated xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f">1</IsMigrated>
-    <D8Migrate xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f">Yes</D8Migrate>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000A62D1336EA6CB49893D9691650955DD" ma:contentTypeVersion="55" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bf5e01e7883b44dbff22fb56c6fa69b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xmlns:ns3="60ea8e68-6540-4627-bb4d-21f975742799" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8a37302b1b8b9e86e15ca8cb27650af" ns2:_="" ns3:_="">
     <xsd:import namespace="2c0079cb-7e3b-4b14-9551-8f7730befe9f"/>
@@ -31889,26 +31826,98 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35FC8EA4-9773-4AF2-8F98-5B73EF2C1C30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2c0079cb-7e3b-4b14-9551-8f7730befe9f"/>
-    <ds:schemaRef ds:uri="60ea8e68-6540-4627-bb4d-21f975742799"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA60398E-4514-4BDE-A9B4-FB7584CD2C98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <OriginalVersionID xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <ShortTitle xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <iddfa39abe6d4bbaa511b4aebbac8986 xmlns="60ea8e68-6540-4627-bb4d-21f975742799">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </iddfa39abe6d4bbaa511b4aebbac8986>
+    <SalesNo xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <PublicationLinkId xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <ISSN xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <ImagePathWhatsNew xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <Price xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <ImagePath xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <ReferenceItemId xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <PublishDate xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f">2019-06-11T22:00:00+00:00</PublishDate>
+    <ImagePathFlagship xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <p60be10af7c941a2b23bb5f20c154691 xmlns="60ea8e68-6540-4627-bb4d-21f975742799">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">WIR Annex Table - Excel</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">acf1c80a-3951-4241-93d4-b41d338d4719</TermId>
+        </TermInfo>
+      </Terms>
+    </p60be10af7c941a2b23bb5f20c154691>
+    <MeetingId xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <Level1 xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <Level4 xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <Symbol xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <Size xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <OfficialDescription xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <LanguageId xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <ReferenceFilePath xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <MeetingLinkId xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <SpanishDocument xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </SpanishDocument>
+    <TaxCatchAll xmlns="60ea8e68-6540-4627-bb4d-21f975742799">
+      <Value>1591</Value>
+    </TaxCatchAll>
+    <h2eb479c36154a2480beda2299c6b6c5 xmlns="60ea8e68-6540-4627-bb4d-21f975742799">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </h2eb479c36154a2480beda2299c6b6c5>
+    <MeetingTitle xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <ParentDocId xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <DocumentCategory xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <Level2 xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <Level5 xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <LongDescription xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <TableOfContent xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <EnglishDocument xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </EnglishDocument>
+    <FrenchDocument xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </FrenchDocument>
+    <ReferenceDocId xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <de7de01eec0e4047a039d74943be32af xmlns="60ea8e68-6540-4627-bb4d-21f975742799">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </de7de01eec0e4047a039d74943be32af>
+    <e21d6563779b4a0cac0804544e1eafba xmlns="60ea8e68-6540-4627-bb4d-21f975742799">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e21d6563779b4a0cac0804544e1eafba>
+    <UNCTADLanguage xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <DocTitle xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <DocumentLabel xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <Level3 xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <NumberOfPages xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <OriginalLanguages xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <SubTitle xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <HighLights xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <Symbol2 xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <ISBN xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f" xsi:nil="true"/>
+    <IsMigrated xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f">1</IsMigrated>
+    <D8Migrate xmlns="2c0079cb-7e3b-4b14-9551-8f7730befe9f">Yes</D8Migrate>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F6C96F-7347-4C7B-AF71-DA57108DACC1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31925,4 +31934,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA60398E-4514-4BDE-A9B4-FB7584CD2C98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35FC8EA4-9773-4AF2-8F98-5B73EF2C1C30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2c0079cb-7e3b-4b14-9551-8f7730befe9f"/>
+    <ds:schemaRef ds:uri="60ea8e68-6540-4627-bb4d-21f975742799"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>